--- a/data/trans_orig/P1406-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Edad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4765</v>
+        <v>5344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002113847359070504</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01049114416405099</v>
+        <v>0.01176643318333598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9947</v>
+        <v>8961</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004160313839940704</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02311989048278795</v>
+        <v>0.02082837135132796</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11317</v>
+        <v>9913</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003109409107220652</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01279663004920988</v>
+        <v>0.01120880645409892</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>453186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449381</v>
+        <v>448802</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -822,7 +822,7 @@
         <v>0.9978861526409295</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9895088558359489</v>
+        <v>0.9882335668166635</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>428440</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>420283</v>
+        <v>421269</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -843,7 +843,7 @@
         <v>0.9958396861600592</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9768801095172114</v>
+        <v>0.9791716286486721</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
         <v>881626</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>873059</v>
+        <v>874463</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -864,7 +864,7 @@
         <v>0.9968905908927793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9872033699507909</v>
+        <v>0.9887911935459009</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6491</v>
+        <v>7336</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002687474102342653</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009446491892489578</v>
+        <v>0.01067751447313548</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6445</v>
+        <v>5596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00142331627836081</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004968117559989048</v>
+        <v>0.004313079708017667</v>
       </c>
     </row>
     <row r="8">
@@ -1022,7 +1022,7 @@
         <v>685240</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>680596</v>
+        <v>679751</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -1031,7 +1031,7 @@
         <v>0.9973125258976574</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9905535081075104</v>
+        <v>0.9893224855268645</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>1295495</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1290897</v>
+        <v>1291746</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1297342</v>
@@ -1065,7 +1065,7 @@
         <v>0.9985766837216392</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.995031882440011</v>
+        <v>0.9956869202919824</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5664</v>
+        <v>6361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002662759125643227</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008306909406131753</v>
+        <v>0.009329580038887548</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1181,19 +1181,19 @@
         <v>5037</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11451</v>
+        <v>11061</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007097963827973096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002788227473722567</v>
+        <v>0.002801733906581998</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01613837017598531</v>
+        <v>0.01558757520013208</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1202,19 +1202,19 @@
         <v>6852</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2913</v>
+        <v>2859</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13598</v>
+        <v>14057</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004924526831154897</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002093215224317795</v>
+        <v>0.002054831179048408</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009772767473994774</v>
+        <v>0.01010269983738674</v>
       </c>
     </row>
     <row r="11">
@@ -1231,7 +1231,7 @@
         <v>680047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>676199</v>
+        <v>675502</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>681863</v>
@@ -1240,7 +1240,7 @@
         <v>0.9973372408743568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9916930905938682</v>
+        <v>0.9906704199611125</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1252,19 +1252,19 @@
         <v>704537</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>698123</v>
+        <v>698513</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707596</v>
+        <v>707586</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9929020361720269</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9838616298240154</v>
+        <v>0.9844124247998677</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972117725262775</v>
+        <v>0.997198266093418</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1310</v>
@@ -1273,19 +1273,19 @@
         <v>1384585</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1377839</v>
+        <v>1377380</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1388524</v>
+        <v>1388578</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9950754731688451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9902272325260054</v>
+        <v>0.9898973001626133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979067847756822</v>
+        <v>0.9979451688209516</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>14694</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7500</v>
+        <v>8320</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24388</v>
+        <v>24643</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02390734254145664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01220312716688609</v>
+        <v>0.01353691440760108</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03968041816592139</v>
+        <v>0.04009501086379966</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1398,19 +1398,19 @@
         <v>8466</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3299</v>
+        <v>3322</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17165</v>
+        <v>17143</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01378295091034354</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005369938286596426</v>
+        <v>0.005408513558351219</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02794321385802462</v>
+        <v>0.02790823272546287</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1419,19 +1419,19 @@
         <v>23160</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14655</v>
+        <v>14962</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35007</v>
+        <v>36749</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0188466001511085</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01192539080379617</v>
+        <v>0.0121749298749739</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0284870277048911</v>
+        <v>0.02990470548646642</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>599923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>590229</v>
+        <v>589974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>607117</v>
+        <v>606297</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9760926574585433</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9603195818340786</v>
+        <v>0.9599049891362004</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.987796872833114</v>
+        <v>0.9864630855923989</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>531</v>
@@ -1469,19 +1469,19 @@
         <v>605798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>597099</v>
+        <v>597121</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>610965</v>
+        <v>610942</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9862170490896565</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9720567861419745</v>
+        <v>0.9720917672745378</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9946300617134035</v>
+        <v>0.9945914864416489</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1066</v>
@@ -1490,19 +1490,19 @@
         <v>1205720</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1193873</v>
+        <v>1192131</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1214225</v>
+        <v>1213918</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9811533998488915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9715129722951089</v>
+        <v>0.9700952945135338</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.988074609196204</v>
+        <v>0.9878250701250263</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>5373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2055</v>
+        <v>2044</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12580</v>
+        <v>11881</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01251118740430932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004784649951124359</v>
+        <v>0.004759520475506465</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02929568711765777</v>
+        <v>0.02766747715841511</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1615,19 +1615,19 @@
         <v>10700</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5422</v>
+        <v>5317</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19541</v>
+        <v>18976</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02389515488718108</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01210741249460152</v>
+        <v>0.01187377109484379</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04363826108176296</v>
+        <v>0.04237607228747982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1636,19 +1636,19 @@
         <v>16073</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9508</v>
+        <v>8692</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26508</v>
+        <v>26559</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01832237206569216</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01083903703729387</v>
+        <v>0.009909015276809057</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03021789009978077</v>
+        <v>0.03027618347061144</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>424056</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>416849</v>
+        <v>417548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>427374</v>
+        <v>427385</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9874888125956907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9707043128823424</v>
+        <v>0.972332522841585</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9952153500488756</v>
+        <v>0.9952404795244936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>396</v>
@@ -1686,19 +1686,19 @@
         <v>437100</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>428259</v>
+        <v>428824</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>442378</v>
+        <v>442483</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9761048451128189</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9563617389182371</v>
+        <v>0.9576239277125201</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9878925875053984</v>
+        <v>0.9881262289051562</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>784</v>
@@ -1707,19 +1707,19 @@
         <v>861156</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>850721</v>
+        <v>850670</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>867721</v>
+        <v>868537</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9816776279343078</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.969782109900219</v>
+        <v>0.9697238165293884</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9891609629627061</v>
+        <v>0.9900909847231909</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>4181</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9506</v>
+        <v>10364</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0134953884359514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003360540208304682</v>
+        <v>0.003327412779551038</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03068712679317599</v>
+        <v>0.03345567082536814</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1832,19 +1832,19 @@
         <v>6049</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2905</v>
+        <v>2895</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12072</v>
+        <v>13007</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01708829358432819</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008207085856786193</v>
+        <v>0.008177656721651274</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03410306758651779</v>
+        <v>0.03674369060209053</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1853,19 +1853,19 @@
         <v>10230</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5051</v>
+        <v>5155</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18665</v>
+        <v>18732</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01541148995963302</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007609020900751666</v>
+        <v>0.007765985237079586</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02811947092001294</v>
+        <v>0.02822007355273917</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>305605</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>300280</v>
+        <v>299422</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>308745</v>
+        <v>308755</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9865046115640486</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.969312873206824</v>
+        <v>0.9665443291746318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9966394597916953</v>
+        <v>0.9966725872204489</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>338</v>
@@ -1903,19 +1903,19 @@
         <v>347947</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>341924</v>
+        <v>340989</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>351091</v>
+        <v>351101</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9829117064156718</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9658969324134822</v>
+        <v>0.9632563093979101</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9917929141432138</v>
+        <v>0.9918223432783487</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>616</v>
@@ -1924,19 +1924,19 @@
         <v>653552</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>645117</v>
+        <v>645050</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>658731</v>
+        <v>658627</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.984588510040367</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9718805290799877</v>
+        <v>0.9717799264472601</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9923909790992483</v>
+        <v>0.9922340147629204</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>11703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5443</v>
+        <v>6267</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19491</v>
+        <v>19884</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04683868690911118</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0217830232442023</v>
+        <v>0.02508285496462802</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07801161624731628</v>
+        <v>0.07958198470719471</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2049,19 +2049,19 @@
         <v>11077</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5526</v>
+        <v>5678</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18692</v>
+        <v>19643</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02856411781237001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01425045839841664</v>
+        <v>0.01464206352287737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04819983325796685</v>
+        <v>0.05065346285969889</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2070,19 +2070,19 @@
         <v>22780</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14009</v>
+        <v>15094</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34393</v>
+        <v>34226</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03572468813295648</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02197012100920035</v>
+        <v>0.02367131349055429</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05393702251625047</v>
+        <v>0.05367551454378141</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>238148</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>230360</v>
+        <v>229967</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244408</v>
+        <v>243584</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9531613130908888</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9219883837526842</v>
+        <v>0.9204180152928054</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9782169767557978</v>
+        <v>0.974917145035372</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>339</v>
@@ -2120,19 +2120,19 @@
         <v>376719</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>369104</v>
+        <v>368153</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>382270</v>
+        <v>382118</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.97143588218763</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.951800166742033</v>
+        <v>0.949346537140301</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9857495416015833</v>
+        <v>0.9853579364771226</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>550</v>
@@ -2141,19 +2141,19 @@
         <v>614867</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>603254</v>
+        <v>603421</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>623638</v>
+        <v>622553</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9642753118670435</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9460629774837495</v>
+        <v>0.9463244854562186</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9780298789907993</v>
+        <v>0.9763286865094457</v>
       </c>
     </row>
     <row r="24">
@@ -2245,19 +2245,19 @@
         <v>40572</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29365</v>
+        <v>29120</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57124</v>
+        <v>54358</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0118397048036285</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008569222295987935</v>
+        <v>0.008497753419120577</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01666987874346042</v>
+        <v>0.01586261225554083</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -2266,19 +2266,19 @@
         <v>43119</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30838</v>
+        <v>30813</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59298</v>
+        <v>56819</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01213289531726442</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008677112081815323</v>
+        <v>0.008670066365026851</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0166853382604414</v>
+        <v>0.01598769493993047</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -2287,19 +2287,19 @@
         <v>83691</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66788</v>
+        <v>66138</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>102704</v>
+        <v>104469</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01198896994547672</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009567584699024911</v>
+        <v>0.009474400150950135</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01471262135815735</v>
+        <v>0.01496537995243023</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>3386207</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3369655</v>
+        <v>3372421</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3397414</v>
+        <v>3397659</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9881602951963715</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9833301212565394</v>
+        <v>0.9841373877444589</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9914307777040121</v>
+        <v>0.9915022465808794</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3256</v>
@@ -2337,19 +2337,19 @@
         <v>3510797</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3494618</v>
+        <v>3497097</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3523078</v>
+        <v>3523103</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9878671046827355</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9833146617395585</v>
+        <v>0.9840123050600695</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9913228879181847</v>
+        <v>0.9913299336349731</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6427</v>
@@ -2358,19 +2358,19 @@
         <v>6897003</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6877990</v>
+        <v>6876225</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6913906</v>
+        <v>6914556</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9880110300545233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9852873786418428</v>
+        <v>0.9850346200475698</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9904324153009751</v>
+        <v>0.9905255998490499</v>
       </c>
     </row>
     <row r="27">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6754</v>
+        <v>6580</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005032700446813062</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01706691386634984</v>
+        <v>0.01662599164684725</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6188</v>
+        <v>6178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002443170264441551</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007591003492763451</v>
+        <v>0.007578307204279594</v>
       </c>
     </row>
     <row r="5">
@@ -2781,7 +2781,7 @@
         <v>393763</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>389001</v>
+        <v>389175</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -2790,7 +2790,7 @@
         <v>0.994967299553187</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9829330861336488</v>
+        <v>0.9833740083531518</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2802,7 +2802,7 @@
         <v>813226</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>809030</v>
+        <v>809040</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -2811,7 +2811,7 @@
         <v>0.9975568297355585</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9924089965072391</v>
+        <v>0.9924216927957229</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6822</v>
+        <v>6792</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002318050182077012</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01155233081109253</v>
+        <v>0.01150289010710427</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2927,19 +2927,19 @@
         <v>2814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7436</v>
+        <v>7531</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004992716798680437</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001601776060023192</v>
+        <v>0.001611269520588659</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0131956367670551</v>
+        <v>0.01336415048829692</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2948,19 +2948,19 @@
         <v>4182</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1368</v>
+        <v>985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10646</v>
+        <v>10968</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003624150099494383</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001185163039277566</v>
+        <v>0.0008539533618474107</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009225178797838171</v>
+        <v>0.009503924984834064</v>
       </c>
     </row>
     <row r="8">
@@ -2977,7 +2977,7 @@
         <v>589127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>583674</v>
+        <v>583704</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -2986,7 +2986,7 @@
         <v>0.997681949817923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9884476691889075</v>
+        <v>0.9884971098928957</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2998,19 +2998,19 @@
         <v>560730</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>556108</v>
+        <v>556013</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562641</v>
+        <v>562636</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9950072832013196</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.986804363232945</v>
+        <v>0.9866358495117031</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983982239399769</v>
+        <v>0.9983887304794113</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1142</v>
@@ -3019,19 +3019,19 @@
         <v>1149858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1143394</v>
+        <v>1143072</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1152672</v>
+        <v>1153055</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9963758499005057</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9907748212021619</v>
+        <v>0.990496075015166</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9988148369607225</v>
+        <v>0.9991460466381525</v>
       </c>
     </row>
     <row r="9">
@@ -3123,19 +3123,19 @@
         <v>2999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8702</v>
+        <v>8510</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004482251748251048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001394831577167701</v>
+        <v>0.001391603602316589</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01300515799231764</v>
+        <v>0.01271850304516253</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6746</v>
+        <v>6764</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002909947102849932</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01019999102944212</v>
+        <v>0.01022676197486701</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3165,19 +3165,19 @@
         <v>4924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1871</v>
+        <v>1916</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11507</v>
+        <v>10837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003700655333218871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001406405046460844</v>
+        <v>0.001439993815599793</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008648626788900018</v>
+        <v>0.008145033838341861</v>
       </c>
     </row>
     <row r="11">
@@ -3194,19 +3194,19 @@
         <v>666098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>660395</v>
+        <v>660587</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668164</v>
+        <v>668166</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.995517748251749</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9869948420076817</v>
+        <v>0.9872814969548357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986051684228323</v>
+        <v>0.9986083963976834</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>663</v>
@@ -3215,7 +3215,7 @@
         <v>659461</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>654640</v>
+        <v>654622</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>661386</v>
@@ -3224,7 +3224,7 @@
         <v>0.99709005289715</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9898000089705579</v>
+        <v>0.989773238025133</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3236,19 +3236,19 @@
         <v>1325559</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1318976</v>
+        <v>1319646</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1328612</v>
+        <v>1328567</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9962993446667812</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9913513732110969</v>
+        <v>0.991854966161658</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985935949535392</v>
+        <v>0.9985600061844</v>
       </c>
     </row>
     <row r="12">
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9185</v>
+        <v>10617</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004471668606616562</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01421658112355633</v>
+        <v>0.01643386390618111</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3361,19 +3361,19 @@
         <v>3662</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11713</v>
+        <v>11408</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00564260371084455</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001497939484591061</v>
+        <v>0.001502983217524735</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01804494143582379</v>
+        <v>0.01757614260208482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -3382,19 +3382,19 @@
         <v>6551</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1968</v>
+        <v>2111</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14868</v>
+        <v>16466</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005058505270294372</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001519313650006413</v>
+        <v>0.001630329651222761</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01147967245786326</v>
+        <v>0.01271372169758693</v>
       </c>
     </row>
     <row r="14">
@@ -3411,7 +3411,7 @@
         <v>643159</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>636863</v>
+        <v>635431</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>646048</v>
@@ -3420,7 +3420,7 @@
         <v>0.9955283313933835</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9857834188764436</v>
+        <v>0.9835661360938184</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3432,19 +3432,19 @@
         <v>645415</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>637364</v>
+        <v>637669</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>648105</v>
+        <v>648101</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9943573962891554</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9819550585641764</v>
+        <v>0.9824238573979153</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9985020605154089</v>
+        <v>0.9984970167824753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1179</v>
@@ -3453,19 +3453,19 @@
         <v>1288574</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1280257</v>
+        <v>1278659</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1293157</v>
+        <v>1293014</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9949414947297056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9885203275421369</v>
+        <v>0.9872862783024122</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9984806863499935</v>
+        <v>0.9983696703487772</v>
       </c>
     </row>
     <row r="15">
@@ -3557,19 +3557,19 @@
         <v>3333</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8815</v>
+        <v>8957</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006973183670500253</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002204247354651776</v>
+        <v>0.002210694526173765</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01844431615199816</v>
+        <v>0.01874081518434868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3578,19 +3578,19 @@
         <v>8670</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4187</v>
+        <v>4271</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16451</v>
+        <v>16438</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01745044075551445</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008427352016712585</v>
+        <v>0.008595354352135355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03311087916923462</v>
+        <v>0.03308482038345616</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3599,19 +3599,19 @@
         <v>12003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6423</v>
+        <v>6499</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19729</v>
+        <v>20967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01231355190282415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00658969482180066</v>
+        <v>0.006666942763670445</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02023928234217721</v>
+        <v>0.02150992629735175</v>
       </c>
     </row>
     <row r="17">
@@ -3628,19 +3628,19 @@
         <v>474585</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>469103</v>
+        <v>468961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476865</v>
+        <v>476861</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9930268163294997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9815556838480021</v>
+        <v>0.9812591848156514</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9977957526453483</v>
+        <v>0.9977893054738263</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>425</v>
@@ -3649,19 +3649,19 @@
         <v>488179</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>480398</v>
+        <v>480411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>492662</v>
+        <v>492578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9825495592444855</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9668891208307654</v>
+        <v>0.9669151796165438</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9915726479832874</v>
+        <v>0.9914046456478646</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>846</v>
@@ -3670,19 +3670,19 @@
         <v>962764</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>955038</v>
+        <v>953800</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>968344</v>
+        <v>968268</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9876864480971759</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9797607176578227</v>
+        <v>0.9784900737026482</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9934103051781993</v>
+        <v>0.9933330572363296</v>
       </c>
     </row>
     <row r="18">
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7339</v>
+        <v>7292</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006253744309130709</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02195040789457085</v>
+        <v>0.02180968444911852</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -3795,19 +3795,19 @@
         <v>6118</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2132</v>
+        <v>2067</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12936</v>
+        <v>12318</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01619589222725118</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005644593014262797</v>
+        <v>0.005471918334366253</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03424446080063753</v>
+        <v>0.03260893595663527</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -3816,19 +3816,19 @@
         <v>8209</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4010</v>
+        <v>3984</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15470</v>
+        <v>16152</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01152801462676454</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005631361597200376</v>
+        <v>0.00559507768462151</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02172461834269659</v>
+        <v>0.02268273291607121</v>
       </c>
     </row>
     <row r="20">
@@ -3845,7 +3845,7 @@
         <v>332239</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>326991</v>
+        <v>327038</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>334330</v>
@@ -3854,7 +3854,7 @@
         <v>0.9937462556908693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9780495921054291</v>
+        <v>0.9781903155508813</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3866,19 +3866,19 @@
         <v>371644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>364826</v>
+        <v>365444</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>375630</v>
+        <v>375695</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9838041077727488</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9657555391993624</v>
+        <v>0.9673910640433647</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9943554069857372</v>
+        <v>0.9945280816656337</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>671</v>
@@ -3887,19 +3887,19 @@
         <v>703883</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>696622</v>
+        <v>695940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>708082</v>
+        <v>708108</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9884719853732354</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9782753816573034</v>
+        <v>0.9773172670839291</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9943686384027997</v>
+        <v>0.9944049223153786</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>2569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7015</v>
+        <v>7200</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009996414175694142</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003137176136698007</v>
+        <v>0.003132321130099421</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02729757791636265</v>
+        <v>0.02801587618973137</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4012,19 +4012,19 @@
         <v>9085</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3902</v>
+        <v>3848</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17398</v>
+        <v>18068</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02270331855215675</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009749927642717118</v>
+        <v>0.00961591834249541</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04347632947931463</v>
+        <v>0.04515100519473409</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -4033,19 +4033,19 @@
         <v>11654</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5758</v>
+        <v>6037</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21504</v>
+        <v>22312</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01773403521624356</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008762121681857813</v>
+        <v>0.009186144063662813</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03272216926230229</v>
+        <v>0.03395193470789853</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>254429</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>249983</v>
+        <v>249798</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>256192</v>
+        <v>256193</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9900035858243058</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9727024220836374</v>
+        <v>0.9719841238102693</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.996862823863302</v>
+        <v>0.9968676788699006</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -4083,19 +4083,19 @@
         <v>391084</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>382771</v>
+        <v>382101</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>396267</v>
+        <v>396321</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9772966814478432</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9565236705206853</v>
+        <v>0.9548489948052651</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9902500723572829</v>
+        <v>0.9903840816575045</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>593</v>
@@ -4104,19 +4104,19 @@
         <v>645513</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>635663</v>
+        <v>634855</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>651409</v>
+        <v>651130</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9822659647837564</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9672778307376985</v>
+        <v>0.966048065292101</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9912378783181421</v>
+        <v>0.9908138559363372</v>
       </c>
     </row>
     <row r="24">
@@ -4208,19 +4208,19 @@
         <v>15249</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8985</v>
+        <v>8798</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26159</v>
+        <v>25469</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004492540558024594</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002647089184754867</v>
+        <v>0.002591952322043402</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007706775582614255</v>
+        <v>0.007503496251335963</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -4229,19 +4229,19 @@
         <v>34266</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23359</v>
+        <v>24728</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49204</v>
+        <v>49067</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00966725887452965</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006590253592379292</v>
+        <v>0.006976462182061841</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01388156574530091</v>
+        <v>0.01384294555964022</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -4250,19 +4250,19 @@
         <v>49515</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35122</v>
+        <v>35621</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65888</v>
+        <v>65566</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007135902855843116</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005061583059749334</v>
+        <v>0.005133551164219857</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009495495391490583</v>
+        <v>0.009449122752126898</v>
       </c>
     </row>
     <row r="26">
@@ -4279,19 +4279,19 @@
         <v>3379101</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3368191</v>
+        <v>3368881</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3385365</v>
+        <v>3385552</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9955074594419754</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9922932244173858</v>
+        <v>0.9924965037486642</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9973529108152454</v>
+        <v>0.9974080476779567</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3307</v>
@@ -4300,19 +4300,19 @@
         <v>3510276</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3495338</v>
+        <v>3495475</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3521183</v>
+        <v>3519814</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9903327411254703</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9861184342546989</v>
+        <v>0.9861570544403597</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9934097464076204</v>
+        <v>0.9930235378179378</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6524</v>
@@ -4321,19 +4321,19 @@
         <v>6889377</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6873004</v>
+        <v>6873326</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6903770</v>
+        <v>6903271</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9928640971441569</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9905045046085093</v>
+        <v>0.9905508772478731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9949384169402506</v>
+        <v>0.9948664488357801</v>
       </c>
     </row>
     <row r="27">
